--- a/BalanceSheet/WM_bal.xlsx
+++ b/BalanceSheet/WM_bal.xlsx
@@ -4272,7 +4272,7 @@
         <v>10287000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>10367000000.0</v>
+        <v>9937000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>10443000000.0</v>
@@ -4399,7 +4399,7 @@
         <v>13452000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>13943000000.0</v>
+        <v>13498000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>13358000000.0</v>
